--- a/Data/EC/NIT-9005861283.xlsx
+++ b/Data/EC/NIT-9005861283.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A1BCACE-A682-4690-801A-A9F3D1FB47CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD1933F6-6949-4E6F-93D1-CD0AC0208A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{052B3C02-76D0-4920-BDE7-15FF4E5D4A55}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2FF9309A-7767-4765-85E9-AAE0CE996457}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="88">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,16 +71,178 @@
     <t>LEONARDO FAVIO QUESADA GOMEZ</t>
   </si>
   <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
     <t>2012</t>
   </si>
   <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
+    <t>1193544270</t>
+  </si>
+  <si>
+    <t>ALVARO JOSE MEJIA ATENCIA</t>
   </si>
   <si>
     <t>8603964</t>
@@ -89,163 +251,22 @@
     <t>RUBEN DARIO MENDOZA BARRIOS</t>
   </si>
   <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>1193544270</t>
-  </si>
-  <si>
-    <t>ALVARO JOSE MEJIA ATENCIA</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
+    <t>1020477859</t>
+  </si>
+  <si>
+    <t>KEYNNER DAVID CUELLAR IGLESIAS</t>
+  </si>
+  <si>
+    <t>5047871</t>
+  </si>
+  <si>
+    <t>EMILIO JOSE MARCHENA ALMENDRALES</t>
+  </si>
+  <si>
+    <t>1098796551</t>
+  </si>
+  <si>
+    <t>EDUARDO JOSE SUAREZ SANTANA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -659,7 +680,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1345528B-8ADD-1DF7-5E02-7BF3273D4798}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17312EB4-A1A6-6E34-584C-1623C247E7BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1010,8 +1031,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5910349B-F59C-477B-8D79-9EF76F6AC393}">
-  <dimension ref="B2:J174"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77C7DE1-22FA-4E4A-8687-760080224A4E}">
+  <dimension ref="B2:J194"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1022,7 +1043,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1035,7 +1056,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1080,7 +1101,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1112,12 +1133,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>6228498</v>
+        <v>7561907</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1128,17 +1149,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C13" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F13" s="5">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1165,13 +1186,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1271,19 +1292,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F20" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G20" s="18">
-        <v>1138500</v>
+        <v>828116</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1294,19 +1315,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F21" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G21" s="18">
-        <v>1138500</v>
+        <v>828116</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1340,19 +1361,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G23" s="18">
-        <v>1138500</v>
+        <v>828116</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1369,7 +1390,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>35112</v>
@@ -1392,7 +1413,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>35112</v>
@@ -1409,19 +1430,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G26" s="18">
-        <v>1138500</v>
+        <v>828116</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1432,19 +1453,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G27" s="18">
-        <v>1138500</v>
+        <v>828116</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1461,7 +1482,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>35112</v>
@@ -1484,7 +1505,7 @@
         <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>35112</v>
@@ -1501,19 +1522,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G30" s="18">
-        <v>1138500</v>
+        <v>828116</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1530,7 +1551,7 @@
         <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
         <v>35112</v>
@@ -1547,19 +1568,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>45540</v>
+        <v>35112</v>
       </c>
       <c r="G32" s="18">
-        <v>1138500</v>
+        <v>828116</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1570,19 +1591,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G33" s="18">
-        <v>1138500</v>
+        <v>828116</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1593,19 +1614,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G34" s="18">
-        <v>1138500</v>
+        <v>828116</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1622,7 +1643,7 @@
         <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
         <v>35112</v>
@@ -1639,19 +1660,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>45540</v>
+        <v>35112</v>
       </c>
       <c r="G36" s="18">
-        <v>1138500</v>
+        <v>828116</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1662,19 +1683,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>45540</v>
+        <v>35112</v>
       </c>
       <c r="G37" s="18">
-        <v>1138500</v>
+        <v>828116</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1685,19 +1706,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G38" s="18">
-        <v>1138500</v>
+        <v>828116</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1714,7 +1735,7 @@
         <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
         <v>35112</v>
@@ -1731,19 +1752,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>45540</v>
+        <v>35112</v>
       </c>
       <c r="G40" s="18">
-        <v>1138500</v>
+        <v>828116</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1760,7 +1781,7 @@
         <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
         <v>35112</v>
@@ -1777,19 +1798,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G42" s="18">
-        <v>1138500</v>
+        <v>828116</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1800,19 +1821,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
-        <v>45540</v>
+        <v>35112</v>
       </c>
       <c r="G43" s="18">
-        <v>1138500</v>
+        <v>828116</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1829,7 +1850,7 @@
         <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
         <v>35112</v>
@@ -1846,19 +1867,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G45" s="18">
-        <v>1138500</v>
+        <v>828116</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1869,19 +1890,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F46" s="18">
-        <v>45540</v>
+        <v>35112</v>
       </c>
       <c r="G46" s="18">
-        <v>1138500</v>
+        <v>828116</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1898,7 +1919,7 @@
         <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F47" s="18">
         <v>35112</v>
@@ -1915,19 +1936,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F48" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G48" s="18">
-        <v>1138500</v>
+        <v>828116</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1944,7 +1965,7 @@
         <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F49" s="18">
         <v>35112</v>
@@ -1961,19 +1982,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F50" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G50" s="18">
-        <v>1138500</v>
+        <v>828116</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1984,19 +2005,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F51" s="18">
-        <v>45540</v>
+        <v>35112</v>
       </c>
       <c r="G51" s="18">
-        <v>1138500</v>
+        <v>828116</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2013,7 +2034,7 @@
         <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F52" s="18">
         <v>35112</v>
@@ -2030,19 +2051,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F53" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G53" s="18">
-        <v>1138500</v>
+        <v>828116</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2053,19 +2074,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F54" s="18">
-        <v>45540</v>
+        <v>35112</v>
       </c>
       <c r="G54" s="18">
-        <v>1138500</v>
+        <v>828116</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2076,19 +2097,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F55" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G55" s="18">
-        <v>1138500</v>
+        <v>828116</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2105,7 +2126,7 @@
         <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="F56" s="18">
         <v>35112</v>
@@ -2122,19 +2143,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="F57" s="18">
-        <v>45540</v>
+        <v>35112</v>
       </c>
       <c r="G57" s="18">
-        <v>1138500</v>
+        <v>828116</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2145,19 +2166,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="F58" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G58" s="18">
-        <v>1138500</v>
+        <v>828116</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2168,19 +2189,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="F59" s="18">
-        <v>45540</v>
+        <v>35112</v>
       </c>
       <c r="G59" s="18">
-        <v>1138500</v>
+        <v>828116</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2197,7 +2218,7 @@
         <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="F60" s="18">
         <v>35112</v>
@@ -2214,19 +2235,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F61" s="18">
-        <v>45540</v>
+        <v>35112</v>
       </c>
       <c r="G61" s="18">
-        <v>1138500</v>
+        <v>828116</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2243,7 +2264,7 @@
         <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="F62" s="18">
         <v>35112</v>
@@ -2260,19 +2281,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="F63" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G63" s="18">
-        <v>1138500</v>
+        <v>828116</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2283,19 +2304,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="F64" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G64" s="18">
-        <v>1138500</v>
+        <v>828116</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2312,7 +2333,7 @@
         <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F65" s="18">
         <v>35112</v>
@@ -2329,19 +2350,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="F66" s="18">
-        <v>45540</v>
+        <v>35112</v>
       </c>
       <c r="G66" s="18">
-        <v>1138500</v>
+        <v>828116</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2352,19 +2373,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="F67" s="18">
-        <v>45540</v>
+        <v>35112</v>
       </c>
       <c r="G67" s="18">
-        <v>1138500</v>
+        <v>828116</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2375,19 +2396,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="F68" s="18">
-        <v>45540</v>
+        <v>35112</v>
       </c>
       <c r="G68" s="18">
-        <v>1138500</v>
+        <v>828116</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2404,7 +2425,7 @@
         <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="F69" s="18">
         <v>35112</v>
@@ -2427,7 +2448,7 @@
         <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="F70" s="18">
         <v>35112</v>
@@ -2444,19 +2465,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="F71" s="18">
-        <v>45540</v>
+        <v>35112</v>
       </c>
       <c r="G71" s="18">
-        <v>1138500</v>
+        <v>828116</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2467,13 +2488,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F72" s="18">
         <v>45540</v>
@@ -2490,13 +2511,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F73" s="18">
         <v>45540</v>
@@ -2513,13 +2534,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="F74" s="18">
         <v>45540</v>
@@ -2536,19 +2557,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="F75" s="18">
-        <v>35112</v>
+        <v>45540</v>
       </c>
       <c r="G75" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2559,13 +2580,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F76" s="18">
         <v>45540</v>
@@ -2582,19 +2603,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="F77" s="18">
-        <v>35112</v>
+        <v>45540</v>
       </c>
       <c r="G77" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2605,13 +2626,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="F78" s="18">
         <v>45540</v>
@@ -2628,13 +2649,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F79" s="18">
         <v>45540</v>
@@ -2651,13 +2672,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="F80" s="18">
         <v>45540</v>
@@ -2674,19 +2695,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F81" s="18">
-        <v>35112</v>
+        <v>45540</v>
       </c>
       <c r="G81" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2697,19 +2718,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="F82" s="18">
-        <v>35112</v>
+        <v>45540</v>
       </c>
       <c r="G82" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2720,13 +2741,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F83" s="18">
         <v>45540</v>
@@ -2743,13 +2764,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E84" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E84" s="16" t="s">
-        <v>41</v>
       </c>
       <c r="F84" s="18">
         <v>45540</v>
@@ -2766,13 +2787,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D85" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E85" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="E85" s="16" t="s">
-        <v>42</v>
       </c>
       <c r="F85" s="18">
         <v>45540</v>
@@ -2789,19 +2810,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F86" s="18">
-        <v>35112</v>
+        <v>45540</v>
       </c>
       <c r="G86" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2812,13 +2833,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="F87" s="18">
         <v>45540</v>
@@ -2835,13 +2856,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F88" s="18">
         <v>45540</v>
@@ -2858,13 +2879,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F89" s="18">
         <v>45540</v>
@@ -2881,19 +2902,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F90" s="18">
-        <v>35112</v>
+        <v>45540</v>
       </c>
       <c r="G90" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2904,19 +2925,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F91" s="18">
-        <v>35112</v>
+        <v>45540</v>
       </c>
       <c r="G91" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2927,13 +2948,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F92" s="18">
         <v>45540</v>
@@ -2950,13 +2971,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F93" s="18">
         <v>45540</v>
@@ -2973,13 +2994,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F94" s="18">
         <v>45540</v>
@@ -2996,13 +3017,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F95" s="18">
         <v>45540</v>
@@ -3019,19 +3040,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F96" s="18">
-        <v>35112</v>
+        <v>45540</v>
       </c>
       <c r="G96" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3042,13 +3063,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F97" s="18">
         <v>45540</v>
@@ -3065,19 +3086,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F98" s="18">
-        <v>35112</v>
+        <v>45540</v>
       </c>
       <c r="G98" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3088,13 +3109,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F99" s="18">
         <v>45540</v>
@@ -3111,13 +3132,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F100" s="18">
         <v>45540</v>
@@ -3134,19 +3155,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F101" s="18">
-        <v>35112</v>
+        <v>45540</v>
       </c>
       <c r="G101" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3157,13 +3178,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F102" s="18">
         <v>45540</v>
@@ -3180,13 +3201,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F103" s="18">
         <v>45540</v>
@@ -3203,19 +3224,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F104" s="18">
-        <v>35112</v>
+        <v>45540</v>
       </c>
       <c r="G104" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3226,13 +3247,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F105" s="18">
         <v>45540</v>
@@ -3249,13 +3270,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F106" s="18">
         <v>45540</v>
@@ -3272,19 +3293,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F107" s="18">
-        <v>35112</v>
+        <v>45540</v>
       </c>
       <c r="G107" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3295,13 +3316,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F108" s="18">
         <v>45540</v>
@@ -3318,13 +3339,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F109" s="18">
         <v>45540</v>
@@ -3341,19 +3362,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F110" s="18">
-        <v>35112</v>
+        <v>45540</v>
       </c>
       <c r="G110" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3364,10 +3385,10 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E111" s="16" t="s">
         <v>50</v>
@@ -3387,10 +3408,10 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="E112" s="16" t="s">
         <v>51</v>
@@ -3410,13 +3431,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F113" s="18">
         <v>45540</v>
@@ -3433,19 +3454,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F114" s="18">
-        <v>35112</v>
+        <v>45540</v>
       </c>
       <c r="G114" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3456,19 +3477,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F115" s="18">
-        <v>35112</v>
+        <v>45540</v>
       </c>
       <c r="G115" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3479,13 +3500,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F116" s="18">
         <v>45540</v>
@@ -3502,13 +3523,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F117" s="18">
         <v>45540</v>
@@ -3525,13 +3546,13 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F118" s="18">
         <v>45540</v>
@@ -3548,19 +3569,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F119" s="18">
-        <v>35112</v>
+        <v>45540</v>
       </c>
       <c r="G119" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3571,13 +3592,13 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="F120" s="18">
         <v>45540</v>
@@ -3594,19 +3615,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="F121" s="18">
-        <v>35112</v>
+        <v>45540</v>
       </c>
       <c r="G121" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3617,13 +3638,13 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="F122" s="18">
         <v>45540</v>
@@ -3640,13 +3661,13 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="F123" s="18">
         <v>45540</v>
@@ -3663,13 +3684,13 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="D124" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E124" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="E124" s="16" t="s">
-        <v>55</v>
       </c>
       <c r="F124" s="18">
         <v>45540</v>
@@ -3686,19 +3707,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="F125" s="18">
-        <v>35112</v>
+        <v>45540</v>
       </c>
       <c r="G125" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3709,13 +3730,13 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="F126" s="18">
         <v>45540</v>
@@ -3732,13 +3753,13 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="F127" s="18">
         <v>45540</v>
@@ -3755,19 +3776,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="F128" s="18">
-        <v>35112</v>
+        <v>45540</v>
       </c>
       <c r="G128" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3778,13 +3799,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="F129" s="18">
         <v>45540</v>
@@ -3801,13 +3822,13 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="F130" s="18">
         <v>45540</v>
@@ -3824,19 +3845,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="F131" s="18">
-        <v>35112</v>
+        <v>45540</v>
       </c>
       <c r="G131" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -3847,13 +3868,13 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="D132" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E132" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="E132" s="16" t="s">
-        <v>57</v>
       </c>
       <c r="F132" s="18">
         <v>45540</v>
@@ -3870,19 +3891,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="F133" s="18">
-        <v>35112</v>
+        <v>45540</v>
       </c>
       <c r="G133" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -3893,13 +3914,13 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="F134" s="18">
         <v>45540</v>
@@ -3916,13 +3937,13 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="F135" s="18">
         <v>45540</v>
@@ -3939,19 +3960,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="F136" s="18">
-        <v>35112</v>
+        <v>45540</v>
       </c>
       <c r="G136" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -3962,13 +3983,13 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="F137" s="18">
         <v>45540</v>
@@ -3985,13 +4006,13 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="F138" s="18">
         <v>45540</v>
@@ -4008,13 +4029,13 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F139" s="18">
         <v>45540</v>
@@ -4031,19 +4052,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="F140" s="18">
-        <v>35112</v>
+        <v>45540</v>
       </c>
       <c r="G140" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4054,13 +4075,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="F141" s="18">
         <v>45540</v>
@@ -4077,13 +4098,13 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="F142" s="18">
         <v>45540</v>
@@ -4100,19 +4121,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="F143" s="18">
-        <v>35112</v>
+        <v>45540</v>
       </c>
       <c r="G143" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4123,13 +4144,13 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="F144" s="18">
         <v>45540</v>
@@ -4146,13 +4167,13 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="F145" s="18">
         <v>45540</v>
@@ -4169,19 +4190,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="F146" s="18">
-        <v>35112</v>
+        <v>45540</v>
       </c>
       <c r="G146" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4192,13 +4213,13 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="F147" s="18">
         <v>45540</v>
@@ -4215,13 +4236,13 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="F148" s="18">
         <v>45540</v>
@@ -4238,13 +4259,13 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="F149" s="18">
         <v>45540</v>
@@ -4261,19 +4282,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="F150" s="18">
-        <v>35112</v>
+        <v>45540</v>
       </c>
       <c r="G150" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4284,13 +4305,13 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F151" s="18">
         <v>45540</v>
@@ -4307,19 +4328,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="F152" s="18">
-        <v>35112</v>
+        <v>45540</v>
       </c>
       <c r="G152" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4330,13 +4351,13 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="F153" s="18">
         <v>45540</v>
@@ -4353,19 +4374,19 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="F154" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G154" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4376,16 +4397,16 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F155" s="18">
-        <v>45540</v>
+        <v>36341</v>
       </c>
       <c r="G155" s="18">
         <v>1138500</v>
@@ -4399,16 +4420,16 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="F156" s="18">
-        <v>45540</v>
+        <v>36341</v>
       </c>
       <c r="G156" s="18">
         <v>1138500</v>
@@ -4422,19 +4443,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="F157" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G157" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4445,16 +4466,16 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F158" s="18">
-        <v>45540</v>
+        <v>36341</v>
       </c>
       <c r="G158" s="18">
         <v>1138500</v>
@@ -4468,16 +4489,16 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="F159" s="18">
-        <v>45540</v>
+        <v>36341</v>
       </c>
       <c r="G159" s="18">
         <v>1138500</v>
@@ -4491,19 +4512,19 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="F160" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G160" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4514,16 +4535,16 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="F161" s="18">
-        <v>45540</v>
+        <v>36341</v>
       </c>
       <c r="G161" s="18">
         <v>1138500</v>
@@ -4537,16 +4558,16 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="F162" s="18">
-        <v>45540</v>
+        <v>36341</v>
       </c>
       <c r="G162" s="18">
         <v>1138500</v>
@@ -4560,16 +4581,16 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F163" s="18">
-        <v>45540</v>
+        <v>36341</v>
       </c>
       <c r="G163" s="18">
         <v>1138500</v>
@@ -4583,16 +4604,16 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F164" s="18">
-        <v>45540</v>
+        <v>36341</v>
       </c>
       <c r="G164" s="18">
         <v>1138500</v>
@@ -4606,19 +4627,19 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="F165" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G165" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -4629,16 +4650,16 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="F166" s="18">
-        <v>45540</v>
+        <v>36341</v>
       </c>
       <c r="G166" s="18">
         <v>1138500</v>
@@ -4652,16 +4673,16 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F167" s="18">
-        <v>45540</v>
+        <v>36341</v>
       </c>
       <c r="G167" s="18">
         <v>1138500</v>
@@ -4671,56 +4692,516 @@
       <c r="J167" s="20"/>
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B168" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C168" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D168" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E168" s="22" t="s">
+      <c r="B168" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C168" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="F168" s="24">
-        <v>35112</v>
-      </c>
-      <c r="G168" s="24">
-        <v>828116</v>
-      </c>
-      <c r="H168" s="25"/>
-      <c r="I168" s="25"/>
-      <c r="J168" s="26"/>
+      <c r="D168" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E168" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F168" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G168" s="18">
+        <v>1138500</v>
+      </c>
+      <c r="H168" s="19"/>
+      <c r="I168" s="19"/>
+      <c r="J168" s="20"/>
+    </row>
+    <row r="169" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B169" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D169" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E169" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F169" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G169" s="18">
+        <v>1138500</v>
+      </c>
+      <c r="H169" s="19"/>
+      <c r="I169" s="19"/>
+      <c r="J169" s="20"/>
+    </row>
+    <row r="170" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B170" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D170" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E170" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F170" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G170" s="18">
+        <v>1138500</v>
+      </c>
+      <c r="H170" s="19"/>
+      <c r="I170" s="19"/>
+      <c r="J170" s="20"/>
+    </row>
+    <row r="171" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B171" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D171" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E171" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F171" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G171" s="18">
+        <v>1138500</v>
+      </c>
+      <c r="H171" s="19"/>
+      <c r="I171" s="19"/>
+      <c r="J171" s="20"/>
+    </row>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B172" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D172" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E172" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F172" s="18">
+        <v>56680</v>
+      </c>
+      <c r="G172" s="18">
+        <v>1417000</v>
+      </c>
+      <c r="H172" s="19"/>
+      <c r="I172" s="19"/>
+      <c r="J172" s="20"/>
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B173" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C173" s="32"/>
-      <c r="H173" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I173" s="1"/>
-      <c r="J173" s="1"/>
+      <c r="B173" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D173" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E173" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F173" s="18">
+        <v>56680</v>
+      </c>
+      <c r="G173" s="18">
+        <v>1417000</v>
+      </c>
+      <c r="H173" s="19"/>
+      <c r="I173" s="19"/>
+      <c r="J173" s="20"/>
     </row>
     <row r="174" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B174" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="C174" s="32"/>
-      <c r="H174" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I174" s="1"/>
-      <c r="J174" s="1"/>
+      <c r="B174" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D174" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E174" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F174" s="18">
+        <v>56680</v>
+      </c>
+      <c r="G174" s="18">
+        <v>1417000</v>
+      </c>
+      <c r="H174" s="19"/>
+      <c r="I174" s="19"/>
+      <c r="J174" s="20"/>
+    </row>
+    <row r="175" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B175" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C175" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D175" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E175" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F175" s="18">
+        <v>56680</v>
+      </c>
+      <c r="G175" s="18">
+        <v>1417000</v>
+      </c>
+      <c r="H175" s="19"/>
+      <c r="I175" s="19"/>
+      <c r="J175" s="20"/>
+    </row>
+    <row r="176" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B176" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C176" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D176" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E176" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F176" s="18">
+        <v>56680</v>
+      </c>
+      <c r="G176" s="18">
+        <v>1417000</v>
+      </c>
+      <c r="H176" s="19"/>
+      <c r="I176" s="19"/>
+      <c r="J176" s="20"/>
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B177" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C177" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D177" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E177" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F177" s="18">
+        <v>56680</v>
+      </c>
+      <c r="G177" s="18">
+        <v>1417000</v>
+      </c>
+      <c r="H177" s="19"/>
+      <c r="I177" s="19"/>
+      <c r="J177" s="20"/>
+    </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B178" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C178" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D178" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E178" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F178" s="18">
+        <v>81799</v>
+      </c>
+      <c r="G178" s="18">
+        <v>2044974</v>
+      </c>
+      <c r="H178" s="19"/>
+      <c r="I178" s="19"/>
+      <c r="J178" s="20"/>
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B179" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D179" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E179" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F179" s="18">
+        <v>76346</v>
+      </c>
+      <c r="G179" s="18">
+        <v>2044974</v>
+      </c>
+      <c r="H179" s="19"/>
+      <c r="I179" s="19"/>
+      <c r="J179" s="20"/>
+    </row>
+    <row r="180" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B180" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C180" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D180" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E180" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F180" s="18">
+        <v>81799</v>
+      </c>
+      <c r="G180" s="18">
+        <v>2044974</v>
+      </c>
+      <c r="H180" s="19"/>
+      <c r="I180" s="19"/>
+      <c r="J180" s="20"/>
+    </row>
+    <row r="181" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B181" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C181" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D181" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E181" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F181" s="18">
+        <v>81799</v>
+      </c>
+      <c r="G181" s="18">
+        <v>2044974</v>
+      </c>
+      <c r="H181" s="19"/>
+      <c r="I181" s="19"/>
+      <c r="J181" s="20"/>
+    </row>
+    <row r="182" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B182" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D182" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E182" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F182" s="18">
+        <v>81799</v>
+      </c>
+      <c r="G182" s="18">
+        <v>2044974</v>
+      </c>
+      <c r="H182" s="19"/>
+      <c r="I182" s="19"/>
+      <c r="J182" s="20"/>
+    </row>
+    <row r="183" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B183" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C183" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D183" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E183" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F183" s="18">
+        <v>81799</v>
+      </c>
+      <c r="G183" s="18">
+        <v>2044974</v>
+      </c>
+      <c r="H183" s="19"/>
+      <c r="I183" s="19"/>
+      <c r="J183" s="20"/>
+    </row>
+    <row r="184" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B184" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C184" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D184" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E184" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F184" s="18">
+        <v>81799</v>
+      </c>
+      <c r="G184" s="18">
+        <v>2044974</v>
+      </c>
+      <c r="H184" s="19"/>
+      <c r="I184" s="19"/>
+      <c r="J184" s="20"/>
+    </row>
+    <row r="185" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B185" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D185" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E185" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F185" s="18">
+        <v>54600</v>
+      </c>
+      <c r="G185" s="18">
+        <v>2044974</v>
+      </c>
+      <c r="H185" s="19"/>
+      <c r="I185" s="19"/>
+      <c r="J185" s="20"/>
+    </row>
+    <row r="186" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B186" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C186" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D186" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E186" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F186" s="18">
+        <v>81799</v>
+      </c>
+      <c r="G186" s="18">
+        <v>2044974</v>
+      </c>
+      <c r="H186" s="19"/>
+      <c r="I186" s="19"/>
+      <c r="J186" s="20"/>
+    </row>
+    <row r="187" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B187" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D187" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E187" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F187" s="18">
+        <v>81799</v>
+      </c>
+      <c r="G187" s="18">
+        <v>2044974</v>
+      </c>
+      <c r="H187" s="19"/>
+      <c r="I187" s="19"/>
+      <c r="J187" s="20"/>
+    </row>
+    <row r="188" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B188" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C188" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D188" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E188" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F188" s="24">
+        <v>81799</v>
+      </c>
+      <c r="G188" s="24">
+        <v>2044974</v>
+      </c>
+      <c r="H188" s="25"/>
+      <c r="I188" s="25"/>
+      <c r="J188" s="26"/>
+    </row>
+    <row r="193" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B193" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C193" s="32"/>
+      <c r="H193" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I193" s="1"/>
+      <c r="J193" s="1"/>
+    </row>
+    <row r="194" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B194" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C194" s="32"/>
+      <c r="H194" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I194" s="1"/>
+      <c r="J194" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="H174:J174"/>
-    <mergeCell ref="H173:J173"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="H194:J194"/>
+    <mergeCell ref="H193:J193"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9005861283.xlsx
+++ b/Data/EC/NIT-9005861283.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD1933F6-6949-4E6F-93D1-CD0AC0208A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{103A0529-200E-41EA-8896-E1A01D54AF22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2FF9309A-7767-4765-85E9-AAE0CE996457}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{220BF220-CE94-419A-A9B0-B807DB658C51}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="83">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,202 +71,187 @@
     <t>LEONARDO FAVIO QUESADA GOMEZ</t>
   </si>
   <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>8603964</t>
+  </si>
+  <si>
+    <t>RUBEN DARIO MENDOZA BARRIOS</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>1193544270</t>
+  </si>
+  <si>
+    <t>ALVARO JOSE MEJIA ATENCIA</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>1193544270</t>
-  </si>
-  <si>
-    <t>ALVARO JOSE MEJIA ATENCIA</t>
-  </si>
-  <si>
-    <t>8603964</t>
-  </si>
-  <si>
-    <t>RUBEN DARIO MENDOZA BARRIOS</t>
-  </si>
-  <si>
-    <t>1020477859</t>
-  </si>
-  <si>
-    <t>KEYNNER DAVID CUELLAR IGLESIAS</t>
-  </si>
-  <si>
-    <t>5047871</t>
-  </si>
-  <si>
-    <t>EMILIO JOSE MARCHENA ALMENDRALES</t>
-  </si>
-  <si>
-    <t>1098796551</t>
-  </si>
-  <si>
-    <t>EDUARDO JOSE SUAREZ SANTANA</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -365,7 +350,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -378,9 +365,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -580,23 +565,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -624,10 +609,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -680,7 +665,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17312EB4-A1A6-6E34-584C-1623C247E7BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA1E3F5E-3656-59CE-EFA0-4C0FBB28D8D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1031,8 +1016,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77C7DE1-22FA-4E4A-8687-760080224A4E}">
-  <dimension ref="B2:J194"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C15BC0-C5B5-4CBE-8451-5FF1FCA4576A}">
+  <dimension ref="B2:J180"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1043,7 +1028,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1056,7 +1041,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1101,7 +1086,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1133,12 +1118,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>7561907</v>
+        <v>6480882</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1149,17 +1134,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C13" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F13" s="5">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1186,13 +1171,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1212,7 +1197,7 @@
         <v>35112</v>
       </c>
       <c r="G16" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1235,7 +1220,7 @@
         <v>35112</v>
       </c>
       <c r="G17" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1258,7 +1243,7 @@
         <v>35112</v>
       </c>
       <c r="G18" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1281,7 +1266,7 @@
         <v>35112</v>
       </c>
       <c r="G19" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1292,19 +1277,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G20" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1321,13 +1306,13 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F21" s="18">
         <v>35112</v>
       </c>
       <c r="G21" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1338,19 +1323,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G22" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1373,7 +1358,7 @@
         <v>35112</v>
       </c>
       <c r="G23" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1384,19 +1369,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F24" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G24" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1413,13 +1398,13 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F25" s="18">
         <v>35112</v>
       </c>
       <c r="G25" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1430,19 +1415,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F26" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G26" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1459,13 +1444,13 @@
         <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F27" s="18">
         <v>35112</v>
       </c>
       <c r="G27" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1476,19 +1461,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F28" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G28" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1505,13 +1490,13 @@
         <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F29" s="18">
         <v>35112</v>
       </c>
       <c r="G29" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1522,19 +1507,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F30" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G30" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1551,13 +1536,13 @@
         <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F31" s="18">
         <v>35112</v>
       </c>
       <c r="G31" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1568,19 +1553,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F32" s="18">
-        <v>35112</v>
+        <v>45540</v>
       </c>
       <c r="G32" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1591,19 +1576,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F33" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G33" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1620,13 +1605,13 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F34" s="18">
         <v>35112</v>
       </c>
       <c r="G34" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1637,19 +1622,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F35" s="18">
-        <v>35112</v>
+        <v>45540</v>
       </c>
       <c r="G35" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1660,19 +1645,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F36" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G36" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1689,13 +1674,13 @@
         <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F37" s="18">
         <v>35112</v>
       </c>
       <c r="G37" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1706,19 +1691,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F38" s="18">
-        <v>35112</v>
+        <v>45540</v>
       </c>
       <c r="G38" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1729,19 +1714,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F39" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G39" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1758,13 +1743,13 @@
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F40" s="18">
         <v>35112</v>
       </c>
       <c r="G40" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1775,19 +1760,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F41" s="18">
-        <v>35112</v>
+        <v>45540</v>
       </c>
       <c r="G41" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1798,19 +1783,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F42" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G42" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1827,13 +1812,13 @@
         <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F43" s="18">
         <v>35112</v>
       </c>
       <c r="G43" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1844,19 +1829,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F44" s="18">
-        <v>35112</v>
+        <v>45540</v>
       </c>
       <c r="G44" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1867,19 +1852,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F45" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G45" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1896,13 +1881,13 @@
         <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F46" s="18">
         <v>35112</v>
       </c>
       <c r="G46" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1913,19 +1898,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F47" s="18">
-        <v>35112</v>
+        <v>45540</v>
       </c>
       <c r="G47" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1936,19 +1921,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F48" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G48" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1965,13 +1950,13 @@
         <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F49" s="18">
         <v>35112</v>
       </c>
       <c r="G49" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1982,19 +1967,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F50" s="18">
-        <v>35112</v>
+        <v>45540</v>
       </c>
       <c r="G50" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2005,19 +1990,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F51" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G51" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2034,13 +2019,13 @@
         <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F52" s="18">
         <v>35112</v>
       </c>
       <c r="G52" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2051,19 +2036,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F53" s="18">
-        <v>35112</v>
+        <v>45540</v>
       </c>
       <c r="G53" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2074,19 +2059,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="F54" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G54" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2103,13 +2088,13 @@
         <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F55" s="18">
         <v>35112</v>
       </c>
       <c r="G55" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2120,19 +2105,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F56" s="18">
-        <v>35112</v>
+        <v>45540</v>
       </c>
       <c r="G56" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2143,19 +2128,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="F57" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G57" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2172,13 +2157,13 @@
         <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="F58" s="18">
         <v>35112</v>
       </c>
       <c r="G58" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2189,19 +2174,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="F59" s="18">
-        <v>35112</v>
+        <v>45540</v>
       </c>
       <c r="G59" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2212,19 +2197,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="F60" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G60" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2241,13 +2226,13 @@
         <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F61" s="18">
         <v>35112</v>
       </c>
       <c r="G61" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2258,19 +2243,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="F62" s="18">
-        <v>35112</v>
+        <v>45540</v>
       </c>
       <c r="G62" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2281,19 +2266,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="F63" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G63" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2310,13 +2295,13 @@
         <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="F64" s="18">
         <v>35112</v>
       </c>
       <c r="G64" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2327,19 +2312,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F65" s="18">
-        <v>35112</v>
+        <v>45540</v>
       </c>
       <c r="G65" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2350,19 +2335,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="F66" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G66" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2379,13 +2364,13 @@
         <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="F67" s="18">
         <v>35112</v>
       </c>
       <c r="G67" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2396,19 +2381,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="F68" s="18">
-        <v>35112</v>
+        <v>45540</v>
       </c>
       <c r="G68" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2419,19 +2404,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="F69" s="18">
-        <v>35112</v>
+        <v>45540</v>
       </c>
       <c r="G69" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2448,13 +2433,13 @@
         <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="F70" s="18">
         <v>35112</v>
       </c>
       <c r="G70" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2465,19 +2450,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="F71" s="18">
-        <v>35112</v>
+        <v>45540</v>
       </c>
       <c r="G71" s="18">
-        <v>828116</v>
+        <v>1138500</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2488,13 +2473,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F72" s="18">
         <v>45540</v>
@@ -2511,19 +2496,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="F73" s="18">
-        <v>45540</v>
+        <v>35112</v>
       </c>
       <c r="G73" s="18">
-        <v>1138500</v>
+        <v>877803</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2534,13 +2519,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F74" s="18">
         <v>45540</v>
@@ -2557,13 +2542,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F75" s="18">
         <v>45540</v>
@@ -2580,19 +2565,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F76" s="18">
-        <v>45540</v>
+        <v>35112</v>
       </c>
       <c r="G76" s="18">
-        <v>1138500</v>
+        <v>877803</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2603,13 +2588,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F77" s="18">
         <v>45540</v>
@@ -2626,13 +2611,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F78" s="18">
         <v>45540</v>
@@ -2649,19 +2634,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F79" s="18">
-        <v>45540</v>
+        <v>35112</v>
       </c>
       <c r="G79" s="18">
-        <v>1138500</v>
+        <v>877803</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2672,13 +2657,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="F80" s="18">
         <v>45540</v>
@@ -2695,13 +2680,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F81" s="18">
         <v>45540</v>
@@ -2718,19 +2703,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F82" s="18">
-        <v>45540</v>
+        <v>35112</v>
       </c>
       <c r="G82" s="18">
-        <v>1138500</v>
+        <v>877803</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2741,13 +2726,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F83" s="18">
         <v>45540</v>
@@ -2764,13 +2749,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F84" s="18">
         <v>45540</v>
@@ -2787,19 +2772,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="F85" s="18">
-        <v>45540</v>
+        <v>35112</v>
       </c>
       <c r="G85" s="18">
-        <v>1138500</v>
+        <v>877803</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2810,13 +2795,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F86" s="18">
         <v>45540</v>
@@ -2833,13 +2818,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F87" s="18">
         <v>45540</v>
@@ -2856,19 +2841,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F88" s="18">
-        <v>45540</v>
+        <v>35112</v>
       </c>
       <c r="G88" s="18">
-        <v>1138500</v>
+        <v>877803</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2879,13 +2864,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F89" s="18">
         <v>45540</v>
@@ -2902,13 +2887,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F90" s="18">
         <v>45540</v>
@@ -2925,19 +2910,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F91" s="18">
-        <v>45540</v>
+        <v>35112</v>
       </c>
       <c r="G91" s="18">
-        <v>1138500</v>
+        <v>877803</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2948,13 +2933,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F92" s="18">
         <v>45540</v>
@@ -2971,13 +2956,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F93" s="18">
         <v>45540</v>
@@ -2994,19 +2979,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F94" s="18">
-        <v>45540</v>
+        <v>35112</v>
       </c>
       <c r="G94" s="18">
-        <v>1138500</v>
+        <v>877803</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3017,13 +3002,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F95" s="18">
         <v>45540</v>
@@ -3040,13 +3025,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F96" s="18">
         <v>45540</v>
@@ -3063,19 +3048,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F97" s="18">
-        <v>45540</v>
+        <v>35112</v>
       </c>
       <c r="G97" s="18">
-        <v>1138500</v>
+        <v>877803</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3086,13 +3071,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F98" s="18">
         <v>45540</v>
@@ -3109,13 +3094,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F99" s="18">
         <v>45540</v>
@@ -3132,19 +3117,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F100" s="18">
-        <v>45540</v>
+        <v>35112</v>
       </c>
       <c r="G100" s="18">
-        <v>1138500</v>
+        <v>877803</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3155,13 +3140,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F101" s="18">
         <v>45540</v>
@@ -3178,13 +3163,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F102" s="18">
         <v>45540</v>
@@ -3201,19 +3186,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F103" s="18">
-        <v>45540</v>
+        <v>35112</v>
       </c>
       <c r="G103" s="18">
-        <v>1138500</v>
+        <v>877803</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3224,13 +3209,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F104" s="18">
         <v>45540</v>
@@ -3247,13 +3232,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F105" s="18">
         <v>45540</v>
@@ -3270,19 +3255,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F106" s="18">
-        <v>45540</v>
+        <v>35112</v>
       </c>
       <c r="G106" s="18">
-        <v>1138500</v>
+        <v>877803</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3293,13 +3278,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F107" s="18">
         <v>45540</v>
@@ -3316,13 +3301,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F108" s="18">
         <v>45540</v>
@@ -3339,19 +3324,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F109" s="18">
-        <v>45540</v>
+        <v>35112</v>
       </c>
       <c r="G109" s="18">
-        <v>1138500</v>
+        <v>877803</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3362,13 +3347,13 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F110" s="18">
         <v>45540</v>
@@ -3385,10 +3370,10 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="E111" s="16" t="s">
         <v>50</v>
@@ -3408,19 +3393,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E112" s="16" t="s">
         <v>51</v>
       </c>
       <c r="F112" s="18">
-        <v>45540</v>
+        <v>35112</v>
       </c>
       <c r="G112" s="18">
-        <v>1138500</v>
+        <v>877803</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3431,13 +3416,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F113" s="18">
         <v>45540</v>
@@ -3454,13 +3439,13 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F114" s="18">
         <v>45540</v>
@@ -3477,19 +3462,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F115" s="18">
-        <v>45540</v>
+        <v>35112</v>
       </c>
       <c r="G115" s="18">
-        <v>1138500</v>
+        <v>877803</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3500,13 +3485,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F116" s="18">
         <v>45540</v>
@@ -3523,13 +3508,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F117" s="18">
         <v>45540</v>
@@ -3546,19 +3531,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F118" s="18">
-        <v>45540</v>
+        <v>35112</v>
       </c>
       <c r="G118" s="18">
-        <v>1138500</v>
+        <v>877803</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3569,13 +3554,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F119" s="18">
         <v>45540</v>
@@ -3592,13 +3577,13 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F120" s="18">
         <v>45540</v>
@@ -3615,19 +3600,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="F121" s="18">
-        <v>45540</v>
+        <v>35112</v>
       </c>
       <c r="G121" s="18">
-        <v>1138500</v>
+        <v>877803</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3638,13 +3623,13 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="F122" s="18">
         <v>45540</v>
@@ -3661,13 +3646,13 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="F123" s="18">
         <v>45540</v>
@@ -3684,19 +3669,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="F124" s="18">
-        <v>45540</v>
+        <v>35112</v>
       </c>
       <c r="G124" s="18">
-        <v>1138500</v>
+        <v>877803</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3707,13 +3692,13 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="F125" s="18">
         <v>45540</v>
@@ -3730,13 +3715,13 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="F126" s="18">
         <v>45540</v>
@@ -3753,19 +3738,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="F127" s="18">
-        <v>45540</v>
+        <v>35112</v>
       </c>
       <c r="G127" s="18">
-        <v>1138500</v>
+        <v>877803</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3776,13 +3761,13 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="F128" s="18">
         <v>45540</v>
@@ -3799,13 +3784,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="F129" s="18">
         <v>45540</v>
@@ -3822,19 +3807,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="F130" s="18">
-        <v>45540</v>
+        <v>35112</v>
       </c>
       <c r="G130" s="18">
-        <v>1138500</v>
+        <v>877803</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -3845,13 +3830,13 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="F131" s="18">
         <v>45540</v>
@@ -3868,13 +3853,13 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="F132" s="18">
         <v>45540</v>
@@ -3891,19 +3876,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="F133" s="18">
-        <v>45540</v>
+        <v>35112</v>
       </c>
       <c r="G133" s="18">
-        <v>1138500</v>
+        <v>877803</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -3914,13 +3899,13 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="F134" s="18">
         <v>45540</v>
@@ -3937,13 +3922,13 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="F135" s="18">
         <v>45540</v>
@@ -3960,19 +3945,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="F136" s="18">
-        <v>45540</v>
+        <v>35112</v>
       </c>
       <c r="G136" s="18">
-        <v>1138500</v>
+        <v>877803</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -3983,13 +3968,13 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="F137" s="18">
         <v>45540</v>
@@ -4006,13 +3991,13 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="F138" s="18">
         <v>45540</v>
@@ -4029,19 +4014,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="F139" s="18">
-        <v>45540</v>
+        <v>35112</v>
       </c>
       <c r="G139" s="18">
-        <v>1138500</v>
+        <v>877803</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4052,13 +4037,13 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="F140" s="18">
         <v>45540</v>
@@ -4075,13 +4060,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="F141" s="18">
         <v>45540</v>
@@ -4098,19 +4083,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="F142" s="18">
-        <v>45540</v>
+        <v>35112</v>
       </c>
       <c r="G142" s="18">
-        <v>1138500</v>
+        <v>877803</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4121,13 +4106,13 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="F143" s="18">
         <v>45540</v>
@@ -4144,13 +4129,13 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="F144" s="18">
         <v>45540</v>
@@ -4167,19 +4152,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="F145" s="18">
-        <v>45540</v>
+        <v>35112</v>
       </c>
       <c r="G145" s="18">
-        <v>1138500</v>
+        <v>877803</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4190,13 +4175,13 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="F146" s="18">
         <v>45540</v>
@@ -4213,13 +4198,13 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="F147" s="18">
         <v>45540</v>
@@ -4236,19 +4221,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="F148" s="18">
-        <v>45540</v>
+        <v>35112</v>
       </c>
       <c r="G148" s="18">
-        <v>1138500</v>
+        <v>877803</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4259,13 +4244,13 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="F149" s="18">
         <v>45540</v>
@@ -4282,13 +4267,13 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="F150" s="18">
         <v>45540</v>
@@ -4305,19 +4290,19 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="F151" s="18">
-        <v>45540</v>
+        <v>35112</v>
       </c>
       <c r="G151" s="18">
-        <v>1138500</v>
+        <v>877803</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
@@ -4328,13 +4313,13 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="F152" s="18">
         <v>45540</v>
@@ -4351,13 +4336,13 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="F153" s="18">
         <v>45540</v>
@@ -4374,19 +4359,19 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="F154" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G154" s="18">
-        <v>1138500</v>
+        <v>877803</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4397,16 +4382,16 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="F155" s="18">
-        <v>36341</v>
+        <v>45540</v>
       </c>
       <c r="G155" s="18">
         <v>1138500</v>
@@ -4420,16 +4405,16 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F156" s="18">
-        <v>36341</v>
+        <v>45540</v>
       </c>
       <c r="G156" s="18">
         <v>1138500</v>
@@ -4443,19 +4428,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="F157" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G157" s="18">
-        <v>1138500</v>
+        <v>877803</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4466,16 +4451,16 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="F158" s="18">
-        <v>36341</v>
+        <v>45540</v>
       </c>
       <c r="G158" s="18">
         <v>1138500</v>
@@ -4489,16 +4474,16 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="F159" s="18">
-        <v>36341</v>
+        <v>45540</v>
       </c>
       <c r="G159" s="18">
         <v>1138500</v>
@@ -4512,19 +4497,19 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="F160" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G160" s="18">
-        <v>1138500</v>
+        <v>877803</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4535,16 +4520,16 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="F161" s="18">
-        <v>36341</v>
+        <v>45540</v>
       </c>
       <c r="G161" s="18">
         <v>1138500</v>
@@ -4558,16 +4543,16 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F162" s="18">
-        <v>36341</v>
+        <v>45540</v>
       </c>
       <c r="G162" s="18">
         <v>1138500</v>
@@ -4581,19 +4566,19 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="F163" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G163" s="18">
-        <v>1138500</v>
+        <v>877803</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -4604,16 +4589,16 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="F164" s="18">
-        <v>36341</v>
+        <v>45540</v>
       </c>
       <c r="G164" s="18">
         <v>1138500</v>
@@ -4627,16 +4612,16 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F165" s="18">
-        <v>36341</v>
+        <v>45540</v>
       </c>
       <c r="G165" s="18">
         <v>1138500</v>
@@ -4650,19 +4635,19 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E166" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D166" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E166" s="16" t="s">
-        <v>58</v>
-      </c>
       <c r="F166" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G166" s="18">
-        <v>1138500</v>
+        <v>877803</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
@@ -4673,16 +4658,16 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D167" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E167" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D167" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E167" s="16" t="s">
-        <v>59</v>
-      </c>
       <c r="F167" s="18">
-        <v>36341</v>
+        <v>45540</v>
       </c>
       <c r="G167" s="18">
         <v>1138500</v>
@@ -4696,16 +4681,16 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D168" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E168" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D168" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E168" s="16" t="s">
-        <v>60</v>
-      </c>
       <c r="F168" s="18">
-        <v>36341</v>
+        <v>45540</v>
       </c>
       <c r="G168" s="18">
         <v>1138500</v>
@@ -4719,19 +4704,19 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D169" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E169" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E169" s="16" t="s">
-        <v>61</v>
-      </c>
       <c r="F169" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G169" s="18">
-        <v>1138500</v>
+        <v>877803</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
@@ -4742,16 +4727,16 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="D170" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E170" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E170" s="16" t="s">
-        <v>62</v>
-      </c>
       <c r="F170" s="18">
-        <v>36341</v>
+        <v>45540</v>
       </c>
       <c r="G170" s="18">
         <v>1138500</v>
@@ -4765,16 +4750,16 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="D171" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E171" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E171" s="16" t="s">
-        <v>63</v>
-      </c>
       <c r="F171" s="18">
-        <v>36341</v>
+        <v>45540</v>
       </c>
       <c r="G171" s="18">
         <v>1138500</v>
@@ -4788,19 +4773,19 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E172" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D172" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E172" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F172" s="18">
-        <v>56680</v>
+        <v>35112</v>
       </c>
       <c r="G172" s="18">
-        <v>1417000</v>
+        <v>877803</v>
       </c>
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
@@ -4811,397 +4796,75 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D173" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E173" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D173" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E173" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F173" s="18">
-        <v>56680</v>
+        <v>45540</v>
       </c>
       <c r="G173" s="18">
-        <v>1417000</v>
+        <v>1138500</v>
       </c>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
       <c r="J173" s="20"/>
     </row>
     <row r="174" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B174" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C174" s="16" t="s">
+      <c r="B174" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D174" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E174" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D174" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E174" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F174" s="18">
-        <v>56680</v>
-      </c>
-      <c r="G174" s="18">
-        <v>1417000</v>
-      </c>
-      <c r="H174" s="19"/>
-      <c r="I174" s="19"/>
-      <c r="J174" s="20"/>
-    </row>
-    <row r="175" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B175" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C175" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D175" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E175" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F175" s="18">
-        <v>56680</v>
-      </c>
-      <c r="G175" s="18">
-        <v>1417000</v>
-      </c>
-      <c r="H175" s="19"/>
-      <c r="I175" s="19"/>
-      <c r="J175" s="20"/>
-    </row>
-    <row r="176" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B176" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C176" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D176" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E176" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F176" s="18">
-        <v>56680</v>
-      </c>
-      <c r="G176" s="18">
-        <v>1417000</v>
-      </c>
-      <c r="H176" s="19"/>
-      <c r="I176" s="19"/>
-      <c r="J176" s="20"/>
-    </row>
-    <row r="177" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B177" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C177" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D177" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E177" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F177" s="18">
-        <v>56680</v>
-      </c>
-      <c r="G177" s="18">
-        <v>1417000</v>
-      </c>
-      <c r="H177" s="19"/>
-      <c r="I177" s="19"/>
-      <c r="J177" s="20"/>
-    </row>
-    <row r="178" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B178" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C178" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D178" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E178" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F178" s="18">
-        <v>81799</v>
-      </c>
-      <c r="G178" s="18">
-        <v>2044974</v>
-      </c>
-      <c r="H178" s="19"/>
-      <c r="I178" s="19"/>
-      <c r="J178" s="20"/>
+      <c r="F174" s="24">
+        <v>45540</v>
+      </c>
+      <c r="G174" s="24">
+        <v>1138500</v>
+      </c>
+      <c r="H174" s="25"/>
+      <c r="I174" s="25"/>
+      <c r="J174" s="26"/>
     </row>
     <row r="179" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B179" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C179" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D179" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E179" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F179" s="18">
-        <v>76346</v>
-      </c>
-      <c r="G179" s="18">
-        <v>2044974</v>
-      </c>
-      <c r="H179" s="19"/>
-      <c r="I179" s="19"/>
-      <c r="J179" s="20"/>
+      <c r="B179" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C179" s="32"/>
+      <c r="H179" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I179" s="1"/>
+      <c r="J179" s="1"/>
     </row>
     <row r="180" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B180" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C180" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D180" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E180" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F180" s="18">
-        <v>81799</v>
-      </c>
-      <c r="G180" s="18">
-        <v>2044974</v>
-      </c>
-      <c r="H180" s="19"/>
-      <c r="I180" s="19"/>
-      <c r="J180" s="20"/>
-    </row>
-    <row r="181" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B181" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C181" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D181" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E181" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F181" s="18">
-        <v>81799</v>
-      </c>
-      <c r="G181" s="18">
-        <v>2044974</v>
-      </c>
-      <c r="H181" s="19"/>
-      <c r="I181" s="19"/>
-      <c r="J181" s="20"/>
-    </row>
-    <row r="182" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B182" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C182" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D182" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E182" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F182" s="18">
-        <v>81799</v>
-      </c>
-      <c r="G182" s="18">
-        <v>2044974</v>
-      </c>
-      <c r="H182" s="19"/>
-      <c r="I182" s="19"/>
-      <c r="J182" s="20"/>
-    </row>
-    <row r="183" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B183" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C183" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D183" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E183" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F183" s="18">
-        <v>81799</v>
-      </c>
-      <c r="G183" s="18">
-        <v>2044974</v>
-      </c>
-      <c r="H183" s="19"/>
-      <c r="I183" s="19"/>
-      <c r="J183" s="20"/>
-    </row>
-    <row r="184" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B184" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C184" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D184" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E184" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F184" s="18">
-        <v>81799</v>
-      </c>
-      <c r="G184" s="18">
-        <v>2044974</v>
-      </c>
-      <c r="H184" s="19"/>
-      <c r="I184" s="19"/>
-      <c r="J184" s="20"/>
-    </row>
-    <row r="185" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B185" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C185" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D185" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E185" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F185" s="18">
-        <v>54600</v>
-      </c>
-      <c r="G185" s="18">
-        <v>2044974</v>
-      </c>
-      <c r="H185" s="19"/>
-      <c r="I185" s="19"/>
-      <c r="J185" s="20"/>
-    </row>
-    <row r="186" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B186" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C186" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D186" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E186" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F186" s="18">
-        <v>81799</v>
-      </c>
-      <c r="G186" s="18">
-        <v>2044974</v>
-      </c>
-      <c r="H186" s="19"/>
-      <c r="I186" s="19"/>
-      <c r="J186" s="20"/>
-    </row>
-    <row r="187" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B187" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C187" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D187" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E187" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F187" s="18">
-        <v>81799</v>
-      </c>
-      <c r="G187" s="18">
-        <v>2044974</v>
-      </c>
-      <c r="H187" s="19"/>
-      <c r="I187" s="19"/>
-      <c r="J187" s="20"/>
-    </row>
-    <row r="188" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B188" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C188" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D188" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="E188" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F188" s="24">
-        <v>81799</v>
-      </c>
-      <c r="G188" s="24">
-        <v>2044974</v>
-      </c>
-      <c r="H188" s="25"/>
-      <c r="I188" s="25"/>
-      <c r="J188" s="26"/>
-    </row>
-    <row r="193" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B193" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C193" s="32"/>
-      <c r="H193" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I193" s="1"/>
-      <c r="J193" s="1"/>
-    </row>
-    <row r="194" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B194" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C194" s="32"/>
-      <c r="H194" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I194" s="1"/>
-      <c r="J194" s="1"/>
+      <c r="B180" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C180" s="32"/>
+      <c r="H180" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I180" s="1"/>
+      <c r="J180" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="H194:J194"/>
-    <mergeCell ref="H193:J193"/>
+    <mergeCell ref="B180:C180"/>
+    <mergeCell ref="B179:C179"/>
+    <mergeCell ref="H180:J180"/>
+    <mergeCell ref="H179:J179"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9005861283.xlsx
+++ b/Data/EC/NIT-9005861283.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{103A0529-200E-41EA-8896-E1A01D54AF22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E5BB119-79D8-4F5F-9EA3-CC79127C4A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{220BF220-CE94-419A-A9B0-B807DB658C51}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{684A4727-F17A-4100-B0F8-0A5B956E4F26}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="84">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>2508</t>
+  </si>
+  <si>
+    <t>2509</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -350,9 +353,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -365,7 +366,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -559,29 +562,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -600,19 +603,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -665,7 +674,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA1E3F5E-3656-59CE-EFA0-4C0FBB28D8D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CFE9829-11FE-9529-E025-B3E0B5B25281}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1016,8 +1025,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C15BC0-C5B5-4CBE-8451-5FF1FCA4576A}">
-  <dimension ref="B2:J180"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2AEC97-09CD-4C8A-984C-9B7EB5CFB157}">
+  <dimension ref="B2:J183"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1039,57 +1048,57 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1105,7 +1114,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9005861283</v>
       </c>
@@ -1118,12 +1127,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
-        <v>6480882</v>
+        <v>6607074</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1134,17 +1143,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C13" s="5">
         <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F13" s="5">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1171,13 +1180,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>77</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1190,18 +1199,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G16" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="F16" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G16" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1213,18 +1222,18 @@
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G17" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="F17" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G17" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1236,18 +1245,18 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G18" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="F18" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G18" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1259,18 +1268,18 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G19" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="F19" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G19" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1282,18 +1291,18 @@
       <c r="D20" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>36341</v>
       </c>
-      <c r="G20" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="G20" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1305,18 +1314,18 @@
       <c r="D21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G21" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="F21" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G21" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1328,18 +1337,18 @@
       <c r="D22" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>36341</v>
       </c>
-      <c r="G22" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="G22" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1351,18 +1360,18 @@
       <c r="D23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G23" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="F23" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G23" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1374,18 +1383,18 @@
       <c r="D24" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>36341</v>
       </c>
-      <c r="G24" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="G24" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1397,18 +1406,18 @@
       <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G25" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="F25" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G25" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1420,18 +1429,18 @@
       <c r="D26" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>36341</v>
       </c>
-      <c r="G26" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="G26" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1443,18 +1452,18 @@
       <c r="D27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G27" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="F27" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G27" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1466,18 +1475,18 @@
       <c r="D28" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>36341</v>
       </c>
-      <c r="G28" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="G28" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1489,18 +1498,18 @@
       <c r="D29" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G29" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="F29" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G29" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1512,18 +1521,18 @@
       <c r="D30" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="19">
         <v>36341</v>
       </c>
-      <c r="G30" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="G30" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1535,18 +1544,18 @@
       <c r="D31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F31" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G31" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="F31" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G31" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1558,18 +1567,18 @@
       <c r="D32" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G32" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="F32" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G32" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1581,18 +1590,18 @@
       <c r="D33" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="19">
         <v>36341</v>
       </c>
-      <c r="G33" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="G33" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1604,18 +1613,18 @@
       <c r="D34" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G34" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="F34" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G34" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1627,18 +1636,18 @@
       <c r="D35" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F35" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G35" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="F35" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G35" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -1650,18 +1659,18 @@
       <c r="D36" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="19">
         <v>36341</v>
       </c>
-      <c r="G36" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="G36" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
@@ -1673,18 +1682,18 @@
       <c r="D37" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F37" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G37" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="F37" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G37" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -1696,18 +1705,18 @@
       <c r="D38" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F38" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G38" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="F38" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G38" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
@@ -1719,18 +1728,18 @@
       <c r="D39" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="19">
         <v>36341</v>
       </c>
-      <c r="G39" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="G39" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
@@ -1742,18 +1751,18 @@
       <c r="D40" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F40" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G40" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+      <c r="F40" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G40" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
@@ -1765,18 +1774,18 @@
       <c r="D41" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F41" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G41" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="F41" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G41" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
@@ -1788,18 +1797,18 @@
       <c r="D42" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="19">
         <v>36341</v>
       </c>
-      <c r="G42" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
+      <c r="G42" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
@@ -1811,18 +1820,18 @@
       <c r="D43" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F43" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G43" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
+      <c r="F43" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G43" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
@@ -1834,18 +1843,18 @@
       <c r="D44" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F44" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G44" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
+      <c r="F44" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G44" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
@@ -1857,18 +1866,18 @@
       <c r="D45" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F45" s="19">
         <v>36341</v>
       </c>
-      <c r="G45" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
+      <c r="G45" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
@@ -1880,18 +1889,18 @@
       <c r="D46" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F46" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G46" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
+      <c r="F46" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G46" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
@@ -1903,18 +1912,18 @@
       <c r="D47" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F47" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G47" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
+      <c r="F47" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G47" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
@@ -1926,18 +1935,18 @@
       <c r="D48" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F48" s="19">
         <v>36341</v>
       </c>
-      <c r="G48" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
+      <c r="G48" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
@@ -1949,18 +1958,18 @@
       <c r="D49" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G49" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
+      <c r="F49" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G49" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
@@ -1972,18 +1981,18 @@
       <c r="D50" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F50" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G50" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
+      <c r="F50" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G50" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
@@ -1995,18 +2004,18 @@
       <c r="D51" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F51" s="18">
+      <c r="F51" s="19">
         <v>36341</v>
       </c>
-      <c r="G51" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
+      <c r="G51" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
@@ -2018,18 +2027,18 @@
       <c r="D52" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F52" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G52" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
+      <c r="F52" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G52" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
@@ -2041,18 +2050,18 @@
       <c r="D53" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F53" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G53" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
+      <c r="F53" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G53" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
@@ -2064,18 +2073,18 @@
       <c r="D54" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F54" s="18">
+      <c r="F54" s="19">
         <v>36341</v>
       </c>
-      <c r="G54" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
+      <c r="G54" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
@@ -2087,18 +2096,18 @@
       <c r="D55" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F55" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G55" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
+      <c r="F55" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G55" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
@@ -2110,18 +2119,18 @@
       <c r="D56" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F56" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G56" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
+      <c r="F56" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G56" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
@@ -2133,18 +2142,18 @@
       <c r="D57" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F57" s="18">
+      <c r="F57" s="19">
         <v>36341</v>
       </c>
-      <c r="G57" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
+      <c r="G57" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
@@ -2156,18 +2165,18 @@
       <c r="D58" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F58" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G58" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
+      <c r="F58" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G58" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
@@ -2179,18 +2188,18 @@
       <c r="D59" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F59" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G59" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
+      <c r="F59" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G59" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
@@ -2202,18 +2211,18 @@
       <c r="D60" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F60" s="18">
+      <c r="F60" s="19">
         <v>36341</v>
       </c>
-      <c r="G60" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
+      <c r="G60" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
@@ -2225,18 +2234,18 @@
       <c r="D61" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F61" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G61" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
+      <c r="F61" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G61" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
@@ -2248,18 +2257,18 @@
       <c r="D62" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F62" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G62" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
+      <c r="F62" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G62" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
@@ -2271,18 +2280,18 @@
       <c r="D63" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F63" s="18">
+      <c r="F63" s="19">
         <v>36341</v>
       </c>
-      <c r="G63" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
+      <c r="G63" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
@@ -2294,18 +2303,18 @@
       <c r="D64" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F64" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G64" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
+      <c r="F64" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G64" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
@@ -2317,18 +2326,18 @@
       <c r="D65" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F65" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G65" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
+      <c r="F65" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G65" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
@@ -2340,18 +2349,18 @@
       <c r="D66" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F66" s="18">
+      <c r="F66" s="19">
         <v>36341</v>
       </c>
-      <c r="G66" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
+      <c r="G66" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
@@ -2363,18 +2372,18 @@
       <c r="D67" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F67" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G67" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
+      <c r="F67" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G67" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
@@ -2386,18 +2395,18 @@
       <c r="D68" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F68" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G68" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
+      <c r="F68" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G68" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="21"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
@@ -2409,18 +2418,18 @@
       <c r="D69" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F69" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G69" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
+      <c r="F69" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G69" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="21"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
@@ -2432,18 +2441,18 @@
       <c r="D70" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F70" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G70" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
+      <c r="F70" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G70" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="21"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
@@ -2455,18 +2464,18 @@
       <c r="D71" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F71" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G71" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
+      <c r="F71" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G71" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="21"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
@@ -2478,18 +2487,18 @@
       <c r="D72" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F72" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G72" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
+      <c r="F72" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G72" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="21"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
@@ -2501,18 +2510,18 @@
       <c r="D73" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F73" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G73" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
+      <c r="F73" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G73" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="21"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
@@ -2524,18 +2533,18 @@
       <c r="D74" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F74" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G74" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
+      <c r="F74" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G74" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="21"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
@@ -2547,18 +2556,18 @@
       <c r="D75" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F75" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G75" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
+      <c r="F75" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G75" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="21"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
@@ -2570,18 +2579,18 @@
       <c r="D76" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F76" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G76" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
+      <c r="F76" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G76" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="21"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
@@ -2593,18 +2602,18 @@
       <c r="D77" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F77" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G77" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
+      <c r="F77" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G77" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="21"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
@@ -2616,18 +2625,18 @@
       <c r="D78" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F78" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G78" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="20"/>
+      <c r="F78" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G78" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="21"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
@@ -2639,18 +2648,18 @@
       <c r="D79" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E79" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F79" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G79" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="20"/>
+      <c r="F79" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G79" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="21"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
@@ -2662,18 +2671,18 @@
       <c r="D80" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F80" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G80" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="20"/>
+      <c r="F80" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G80" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="21"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
@@ -2685,18 +2694,18 @@
       <c r="D81" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="E81" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F81" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G81" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="20"/>
+      <c r="F81" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G81" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="21"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
@@ -2708,18 +2717,18 @@
       <c r="D82" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F82" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G82" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="20"/>
+      <c r="F82" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G82" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="21"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
@@ -2731,18 +2740,18 @@
       <c r="D83" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="E83" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F83" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G83" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="20"/>
+      <c r="F83" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G83" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="21"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
@@ -2754,18 +2763,18 @@
       <c r="D84" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E84" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F84" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G84" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
+      <c r="F84" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G84" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="21"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
@@ -2777,18 +2786,18 @@
       <c r="D85" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="E85" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F85" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G85" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="20"/>
+      <c r="F85" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G85" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="21"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
@@ -2800,18 +2809,18 @@
       <c r="D86" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E86" s="16" t="s">
+      <c r="E86" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F86" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G86" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="20"/>
+      <c r="F86" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G86" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="21"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
@@ -2823,18 +2832,18 @@
       <c r="D87" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E87" s="16" t="s">
+      <c r="E87" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F87" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G87" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="20"/>
+      <c r="F87" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G87" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="21"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
@@ -2846,18 +2855,18 @@
       <c r="D88" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="E88" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F88" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G88" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="20"/>
+      <c r="F88" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G88" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="21"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
@@ -2869,18 +2878,18 @@
       <c r="D89" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E89" s="16" t="s">
+      <c r="E89" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F89" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G89" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="20"/>
+      <c r="F89" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G89" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="21"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
@@ -2892,18 +2901,18 @@
       <c r="D90" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E90" s="16" t="s">
+      <c r="E90" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F90" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G90" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="20"/>
+      <c r="F90" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G90" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="21"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
@@ -2915,18 +2924,18 @@
       <c r="D91" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E91" s="16" t="s">
+      <c r="E91" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F91" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G91" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="20"/>
+      <c r="F91" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G91" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="21"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
@@ -2938,18 +2947,18 @@
       <c r="D92" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="E92" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F92" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G92" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="20"/>
+      <c r="F92" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G92" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="21"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
@@ -2961,18 +2970,18 @@
       <c r="D93" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="E93" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F93" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G93" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="20"/>
+      <c r="F93" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G93" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="21"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
@@ -2984,18 +2993,18 @@
       <c r="D94" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E94" s="16" t="s">
+      <c r="E94" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F94" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G94" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="20"/>
+      <c r="F94" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G94" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="21"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
@@ -3007,18 +3016,18 @@
       <c r="D95" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E95" s="16" t="s">
+      <c r="E95" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F95" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G95" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="20"/>
+      <c r="F95" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G95" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="21"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
@@ -3030,18 +3039,18 @@
       <c r="D96" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E96" s="16" t="s">
+      <c r="E96" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F96" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G96" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="20"/>
+      <c r="F96" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G96" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="21"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
@@ -3053,18 +3062,18 @@
       <c r="D97" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E97" s="16" t="s">
+      <c r="E97" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F97" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G97" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="20"/>
+      <c r="F97" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G97" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="21"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
@@ -3076,18 +3085,18 @@
       <c r="D98" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E98" s="16" t="s">
+      <c r="E98" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F98" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G98" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="20"/>
+      <c r="F98" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G98" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="21"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B99" s="15" t="s">
@@ -3099,18 +3108,18 @@
       <c r="D99" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E99" s="16" t="s">
+      <c r="E99" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F99" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G99" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="20"/>
+      <c r="F99" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G99" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="21"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B100" s="15" t="s">
@@ -3122,18 +3131,18 @@
       <c r="D100" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E100" s="16" t="s">
+      <c r="E100" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F100" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G100" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="20"/>
+      <c r="F100" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G100" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="21"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
@@ -3145,18 +3154,18 @@
       <c r="D101" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E101" s="16" t="s">
+      <c r="E101" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F101" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G101" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="20"/>
+      <c r="F101" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G101" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H101" s="20"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="21"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B102" s="15" t="s">
@@ -3168,18 +3177,18 @@
       <c r="D102" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E102" s="16" t="s">
+      <c r="E102" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F102" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G102" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="20"/>
+      <c r="F102" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G102" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H102" s="20"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="21"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B103" s="15" t="s">
@@ -3191,18 +3200,18 @@
       <c r="D103" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E103" s="16" t="s">
+      <c r="E103" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F103" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G103" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="20"/>
+      <c r="F103" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G103" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="21"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B104" s="15" t="s">
@@ -3214,18 +3223,18 @@
       <c r="D104" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E104" s="16" t="s">
+      <c r="E104" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F104" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G104" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="20"/>
+      <c r="F104" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G104" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H104" s="20"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="21"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B105" s="15" t="s">
@@ -3237,18 +3246,18 @@
       <c r="D105" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E105" s="16" t="s">
+      <c r="E105" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F105" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G105" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="20"/>
+      <c r="F105" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G105" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H105" s="20"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="21"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B106" s="15" t="s">
@@ -3260,18 +3269,18 @@
       <c r="D106" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E106" s="16" t="s">
+      <c r="E106" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F106" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G106" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="20"/>
+      <c r="F106" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G106" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H106" s="20"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="21"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B107" s="15" t="s">
@@ -3283,18 +3292,18 @@
       <c r="D107" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E107" s="16" t="s">
+      <c r="E107" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F107" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G107" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="20"/>
+      <c r="F107" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G107" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H107" s="20"/>
+      <c r="I107" s="20"/>
+      <c r="J107" s="21"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B108" s="15" t="s">
@@ -3306,18 +3315,18 @@
       <c r="D108" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E108" s="16" t="s">
+      <c r="E108" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F108" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G108" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="20"/>
+      <c r="F108" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G108" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H108" s="20"/>
+      <c r="I108" s="20"/>
+      <c r="J108" s="21"/>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B109" s="15" t="s">
@@ -3329,18 +3338,18 @@
       <c r="D109" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E109" s="16" t="s">
+      <c r="E109" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F109" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G109" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="20"/>
+      <c r="F109" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G109" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="21"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B110" s="15" t="s">
@@ -3352,18 +3361,18 @@
       <c r="D110" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E110" s="16" t="s">
+      <c r="E110" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F110" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G110" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="20"/>
+      <c r="F110" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G110" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H110" s="20"/>
+      <c r="I110" s="20"/>
+      <c r="J110" s="21"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B111" s="15" t="s">
@@ -3375,18 +3384,18 @@
       <c r="D111" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E111" s="16" t="s">
+      <c r="E111" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F111" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G111" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="20"/>
+      <c r="F111" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G111" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H111" s="20"/>
+      <c r="I111" s="20"/>
+      <c r="J111" s="21"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B112" s="15" t="s">
@@ -3398,18 +3407,18 @@
       <c r="D112" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E112" s="16" t="s">
+      <c r="E112" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F112" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G112" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="20"/>
+      <c r="F112" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G112" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H112" s="20"/>
+      <c r="I112" s="20"/>
+      <c r="J112" s="21"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="15" t="s">
@@ -3421,18 +3430,18 @@
       <c r="D113" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E113" s="16" t="s">
+      <c r="E113" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F113" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G113" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="20"/>
+      <c r="F113" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G113" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H113" s="20"/>
+      <c r="I113" s="20"/>
+      <c r="J113" s="21"/>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B114" s="15" t="s">
@@ -3444,18 +3453,18 @@
       <c r="D114" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E114" s="16" t="s">
+      <c r="E114" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F114" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G114" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="20"/>
+      <c r="F114" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G114" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H114" s="20"/>
+      <c r="I114" s="20"/>
+      <c r="J114" s="21"/>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B115" s="15" t="s">
@@ -3467,18 +3476,18 @@
       <c r="D115" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E115" s="16" t="s">
+      <c r="E115" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F115" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G115" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="20"/>
+      <c r="F115" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G115" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H115" s="20"/>
+      <c r="I115" s="20"/>
+      <c r="J115" s="21"/>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B116" s="15" t="s">
@@ -3490,18 +3499,18 @@
       <c r="D116" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E116" s="16" t="s">
+      <c r="E116" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F116" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G116" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H116" s="19"/>
-      <c r="I116" s="19"/>
-      <c r="J116" s="20"/>
+      <c r="F116" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G116" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H116" s="20"/>
+      <c r="I116" s="20"/>
+      <c r="J116" s="21"/>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B117" s="15" t="s">
@@ -3513,18 +3522,18 @@
       <c r="D117" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E117" s="16" t="s">
+      <c r="E117" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F117" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G117" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H117" s="19"/>
-      <c r="I117" s="19"/>
-      <c r="J117" s="20"/>
+      <c r="F117" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G117" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H117" s="20"/>
+      <c r="I117" s="20"/>
+      <c r="J117" s="21"/>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B118" s="15" t="s">
@@ -3536,18 +3545,18 @@
       <c r="D118" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E118" s="16" t="s">
+      <c r="E118" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F118" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G118" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
-      <c r="J118" s="20"/>
+      <c r="F118" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G118" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H118" s="20"/>
+      <c r="I118" s="20"/>
+      <c r="J118" s="21"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B119" s="15" t="s">
@@ -3559,18 +3568,18 @@
       <c r="D119" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E119" s="16" t="s">
+      <c r="E119" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F119" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G119" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="20"/>
+      <c r="F119" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G119" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H119" s="20"/>
+      <c r="I119" s="20"/>
+      <c r="J119" s="21"/>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B120" s="15" t="s">
@@ -3582,18 +3591,18 @@
       <c r="D120" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E120" s="16" t="s">
+      <c r="E120" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F120" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G120" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H120" s="19"/>
-      <c r="I120" s="19"/>
-      <c r="J120" s="20"/>
+      <c r="F120" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G120" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H120" s="20"/>
+      <c r="I120" s="20"/>
+      <c r="J120" s="21"/>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B121" s="15" t="s">
@@ -3605,18 +3614,18 @@
       <c r="D121" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E121" s="16" t="s">
+      <c r="E121" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F121" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G121" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H121" s="19"/>
-      <c r="I121" s="19"/>
-      <c r="J121" s="20"/>
+      <c r="F121" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G121" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H121" s="20"/>
+      <c r="I121" s="20"/>
+      <c r="J121" s="21"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B122" s="15" t="s">
@@ -3628,18 +3637,18 @@
       <c r="D122" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E122" s="16" t="s">
+      <c r="E122" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F122" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G122" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="20"/>
+      <c r="F122" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G122" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H122" s="20"/>
+      <c r="I122" s="20"/>
+      <c r="J122" s="21"/>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B123" s="15" t="s">
@@ -3651,18 +3660,18 @@
       <c r="D123" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E123" s="16" t="s">
+      <c r="E123" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F123" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G123" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H123" s="19"/>
-      <c r="I123" s="19"/>
-      <c r="J123" s="20"/>
+      <c r="F123" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G123" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H123" s="20"/>
+      <c r="I123" s="20"/>
+      <c r="J123" s="21"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B124" s="15" t="s">
@@ -3674,18 +3683,18 @@
       <c r="D124" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E124" s="16" t="s">
+      <c r="E124" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F124" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G124" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H124" s="19"/>
-      <c r="I124" s="19"/>
-      <c r="J124" s="20"/>
+      <c r="F124" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G124" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H124" s="20"/>
+      <c r="I124" s="20"/>
+      <c r="J124" s="21"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B125" s="15" t="s">
@@ -3697,18 +3706,18 @@
       <c r="D125" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E125" s="16" t="s">
+      <c r="E125" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F125" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G125" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H125" s="19"/>
-      <c r="I125" s="19"/>
-      <c r="J125" s="20"/>
+      <c r="F125" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G125" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H125" s="20"/>
+      <c r="I125" s="20"/>
+      <c r="J125" s="21"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B126" s="15" t="s">
@@ -3720,18 +3729,18 @@
       <c r="D126" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E126" s="16" t="s">
+      <c r="E126" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F126" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G126" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="20"/>
+      <c r="F126" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G126" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H126" s="20"/>
+      <c r="I126" s="20"/>
+      <c r="J126" s="21"/>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B127" s="15" t="s">
@@ -3743,18 +3752,18 @@
       <c r="D127" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E127" s="16" t="s">
+      <c r="E127" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F127" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G127" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H127" s="19"/>
-      <c r="I127" s="19"/>
-      <c r="J127" s="20"/>
+      <c r="F127" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G127" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H127" s="20"/>
+      <c r="I127" s="20"/>
+      <c r="J127" s="21"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B128" s="15" t="s">
@@ -3766,18 +3775,18 @@
       <c r="D128" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E128" s="16" t="s">
+      <c r="E128" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F128" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G128" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H128" s="19"/>
-      <c r="I128" s="19"/>
-      <c r="J128" s="20"/>
+      <c r="F128" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G128" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H128" s="20"/>
+      <c r="I128" s="20"/>
+      <c r="J128" s="21"/>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B129" s="15" t="s">
@@ -3789,18 +3798,18 @@
       <c r="D129" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E129" s="16" t="s">
+      <c r="E129" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F129" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G129" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H129" s="19"/>
-      <c r="I129" s="19"/>
-      <c r="J129" s="20"/>
+      <c r="F129" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G129" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H129" s="20"/>
+      <c r="I129" s="20"/>
+      <c r="J129" s="21"/>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B130" s="15" t="s">
@@ -3812,18 +3821,18 @@
       <c r="D130" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E130" s="16" t="s">
+      <c r="E130" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F130" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G130" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H130" s="19"/>
-      <c r="I130" s="19"/>
-      <c r="J130" s="20"/>
+      <c r="F130" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G130" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H130" s="20"/>
+      <c r="I130" s="20"/>
+      <c r="J130" s="21"/>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B131" s="15" t="s">
@@ -3835,18 +3844,18 @@
       <c r="D131" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E131" s="16" t="s">
+      <c r="E131" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F131" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G131" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H131" s="19"/>
-      <c r="I131" s="19"/>
-      <c r="J131" s="20"/>
+      <c r="F131" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G131" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H131" s="20"/>
+      <c r="I131" s="20"/>
+      <c r="J131" s="21"/>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B132" s="15" t="s">
@@ -3858,18 +3867,18 @@
       <c r="D132" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E132" s="16" t="s">
+      <c r="E132" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F132" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G132" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H132" s="19"/>
-      <c r="I132" s="19"/>
-      <c r="J132" s="20"/>
+      <c r="F132" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G132" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H132" s="20"/>
+      <c r="I132" s="20"/>
+      <c r="J132" s="21"/>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B133" s="15" t="s">
@@ -3881,18 +3890,18 @@
       <c r="D133" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E133" s="16" t="s">
+      <c r="E133" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F133" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G133" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H133" s="19"/>
-      <c r="I133" s="19"/>
-      <c r="J133" s="20"/>
+      <c r="F133" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G133" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H133" s="20"/>
+      <c r="I133" s="20"/>
+      <c r="J133" s="21"/>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B134" s="15" t="s">
@@ -3904,18 +3913,18 @@
       <c r="D134" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E134" s="16" t="s">
+      <c r="E134" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F134" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G134" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H134" s="19"/>
-      <c r="I134" s="19"/>
-      <c r="J134" s="20"/>
+      <c r="F134" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G134" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H134" s="20"/>
+      <c r="I134" s="20"/>
+      <c r="J134" s="21"/>
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B135" s="15" t="s">
@@ -3927,18 +3936,18 @@
       <c r="D135" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E135" s="16" t="s">
+      <c r="E135" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F135" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G135" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H135" s="19"/>
-      <c r="I135" s="19"/>
-      <c r="J135" s="20"/>
+      <c r="F135" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G135" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H135" s="20"/>
+      <c r="I135" s="20"/>
+      <c r="J135" s="21"/>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B136" s="15" t="s">
@@ -3950,18 +3959,18 @@
       <c r="D136" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E136" s="16" t="s">
+      <c r="E136" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F136" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G136" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H136" s="19"/>
-      <c r="I136" s="19"/>
-      <c r="J136" s="20"/>
+      <c r="F136" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G136" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H136" s="20"/>
+      <c r="I136" s="20"/>
+      <c r="J136" s="21"/>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B137" s="15" t="s">
@@ -3973,18 +3982,18 @@
       <c r="D137" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E137" s="16" t="s">
+      <c r="E137" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F137" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G137" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H137" s="19"/>
-      <c r="I137" s="19"/>
-      <c r="J137" s="20"/>
+      <c r="F137" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G137" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H137" s="20"/>
+      <c r="I137" s="20"/>
+      <c r="J137" s="21"/>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B138" s="15" t="s">
@@ -3996,18 +4005,18 @@
       <c r="D138" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E138" s="16" t="s">
+      <c r="E138" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F138" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G138" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H138" s="19"/>
-      <c r="I138" s="19"/>
-      <c r="J138" s="20"/>
+      <c r="F138" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G138" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H138" s="20"/>
+      <c r="I138" s="20"/>
+      <c r="J138" s="21"/>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B139" s="15" t="s">
@@ -4019,18 +4028,18 @@
       <c r="D139" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E139" s="16" t="s">
+      <c r="E139" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F139" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G139" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H139" s="19"/>
-      <c r="I139" s="19"/>
-      <c r="J139" s="20"/>
+      <c r="F139" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G139" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H139" s="20"/>
+      <c r="I139" s="20"/>
+      <c r="J139" s="21"/>
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B140" s="15" t="s">
@@ -4042,18 +4051,18 @@
       <c r="D140" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E140" s="16" t="s">
+      <c r="E140" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F140" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G140" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H140" s="19"/>
-      <c r="I140" s="19"/>
-      <c r="J140" s="20"/>
+      <c r="F140" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G140" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H140" s="20"/>
+      <c r="I140" s="20"/>
+      <c r="J140" s="21"/>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B141" s="15" t="s">
@@ -4065,18 +4074,18 @@
       <c r="D141" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E141" s="16" t="s">
+      <c r="E141" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F141" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G141" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H141" s="19"/>
-      <c r="I141" s="19"/>
-      <c r="J141" s="20"/>
+      <c r="F141" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G141" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H141" s="20"/>
+      <c r="I141" s="20"/>
+      <c r="J141" s="21"/>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B142" s="15" t="s">
@@ -4088,18 +4097,18 @@
       <c r="D142" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E142" s="16" t="s">
+      <c r="E142" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F142" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G142" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H142" s="19"/>
-      <c r="I142" s="19"/>
-      <c r="J142" s="20"/>
+      <c r="F142" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G142" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H142" s="20"/>
+      <c r="I142" s="20"/>
+      <c r="J142" s="21"/>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B143" s="15" t="s">
@@ -4111,18 +4120,18 @@
       <c r="D143" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E143" s="16" t="s">
+      <c r="E143" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F143" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G143" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H143" s="19"/>
-      <c r="I143" s="19"/>
-      <c r="J143" s="20"/>
+      <c r="F143" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G143" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H143" s="20"/>
+      <c r="I143" s="20"/>
+      <c r="J143" s="21"/>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B144" s="15" t="s">
@@ -4134,18 +4143,18 @@
       <c r="D144" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E144" s="16" t="s">
+      <c r="E144" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F144" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G144" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H144" s="19"/>
-      <c r="I144" s="19"/>
-      <c r="J144" s="20"/>
+      <c r="F144" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G144" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H144" s="20"/>
+      <c r="I144" s="20"/>
+      <c r="J144" s="21"/>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B145" s="15" t="s">
@@ -4157,18 +4166,18 @@
       <c r="D145" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E145" s="16" t="s">
+      <c r="E145" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F145" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G145" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H145" s="19"/>
-      <c r="I145" s="19"/>
-      <c r="J145" s="20"/>
+      <c r="F145" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G145" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H145" s="20"/>
+      <c r="I145" s="20"/>
+      <c r="J145" s="21"/>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B146" s="15" t="s">
@@ -4180,18 +4189,18 @@
       <c r="D146" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E146" s="16" t="s">
+      <c r="E146" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F146" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G146" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H146" s="19"/>
-      <c r="I146" s="19"/>
-      <c r="J146" s="20"/>
+      <c r="F146" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G146" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H146" s="20"/>
+      <c r="I146" s="20"/>
+      <c r="J146" s="21"/>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B147" s="15" t="s">
@@ -4203,18 +4212,18 @@
       <c r="D147" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E147" s="16" t="s">
+      <c r="E147" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F147" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G147" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H147" s="19"/>
-      <c r="I147" s="19"/>
-      <c r="J147" s="20"/>
+      <c r="F147" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G147" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H147" s="20"/>
+      <c r="I147" s="20"/>
+      <c r="J147" s="21"/>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B148" s="15" t="s">
@@ -4226,18 +4235,18 @@
       <c r="D148" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E148" s="16" t="s">
+      <c r="E148" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F148" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G148" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H148" s="19"/>
-      <c r="I148" s="19"/>
-      <c r="J148" s="20"/>
+      <c r="F148" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G148" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H148" s="20"/>
+      <c r="I148" s="20"/>
+      <c r="J148" s="21"/>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B149" s="15" t="s">
@@ -4249,18 +4258,18 @@
       <c r="D149" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E149" s="16" t="s">
+      <c r="E149" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F149" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G149" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H149" s="19"/>
-      <c r="I149" s="19"/>
-      <c r="J149" s="20"/>
+      <c r="F149" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G149" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H149" s="20"/>
+      <c r="I149" s="20"/>
+      <c r="J149" s="21"/>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B150" s="15" t="s">
@@ -4272,18 +4281,18 @@
       <c r="D150" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E150" s="16" t="s">
+      <c r="E150" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F150" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G150" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H150" s="19"/>
-      <c r="I150" s="19"/>
-      <c r="J150" s="20"/>
+      <c r="F150" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G150" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H150" s="20"/>
+      <c r="I150" s="20"/>
+      <c r="J150" s="21"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B151" s="15" t="s">
@@ -4295,18 +4304,18 @@
       <c r="D151" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E151" s="16" t="s">
+      <c r="E151" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F151" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G151" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H151" s="19"/>
-      <c r="I151" s="19"/>
-      <c r="J151" s="20"/>
+      <c r="F151" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G151" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H151" s="20"/>
+      <c r="I151" s="20"/>
+      <c r="J151" s="21"/>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B152" s="15" t="s">
@@ -4318,18 +4327,18 @@
       <c r="D152" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E152" s="16" t="s">
+      <c r="E152" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F152" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G152" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H152" s="19"/>
-      <c r="I152" s="19"/>
-      <c r="J152" s="20"/>
+      <c r="F152" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G152" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H152" s="20"/>
+      <c r="I152" s="20"/>
+      <c r="J152" s="21"/>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B153" s="15" t="s">
@@ -4341,18 +4350,18 @@
       <c r="D153" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E153" s="16" t="s">
+      <c r="E153" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F153" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G153" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H153" s="19"/>
-      <c r="I153" s="19"/>
-      <c r="J153" s="20"/>
+      <c r="F153" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G153" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H153" s="20"/>
+      <c r="I153" s="20"/>
+      <c r="J153" s="21"/>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B154" s="15" t="s">
@@ -4364,18 +4373,18 @@
       <c r="D154" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E154" s="16" t="s">
+      <c r="E154" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F154" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G154" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H154" s="19"/>
-      <c r="I154" s="19"/>
-      <c r="J154" s="20"/>
+      <c r="F154" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G154" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H154" s="20"/>
+      <c r="I154" s="20"/>
+      <c r="J154" s="21"/>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B155" s="15" t="s">
@@ -4387,18 +4396,18 @@
       <c r="D155" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E155" s="16" t="s">
+      <c r="E155" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F155" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G155" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H155" s="19"/>
-      <c r="I155" s="19"/>
-      <c r="J155" s="20"/>
+      <c r="F155" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G155" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H155" s="20"/>
+      <c r="I155" s="20"/>
+      <c r="J155" s="21"/>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B156" s="15" t="s">
@@ -4410,18 +4419,18 @@
       <c r="D156" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E156" s="16" t="s">
+      <c r="E156" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F156" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G156" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H156" s="19"/>
-      <c r="I156" s="19"/>
-      <c r="J156" s="20"/>
+      <c r="F156" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G156" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H156" s="20"/>
+      <c r="I156" s="20"/>
+      <c r="J156" s="21"/>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B157" s="15" t="s">
@@ -4433,18 +4442,18 @@
       <c r="D157" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E157" s="16" t="s">
+      <c r="E157" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F157" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G157" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H157" s="19"/>
-      <c r="I157" s="19"/>
-      <c r="J157" s="20"/>
+      <c r="F157" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G157" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H157" s="20"/>
+      <c r="I157" s="20"/>
+      <c r="J157" s="21"/>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B158" s="15" t="s">
@@ -4456,18 +4465,18 @@
       <c r="D158" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E158" s="16" t="s">
+      <c r="E158" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F158" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G158" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H158" s="19"/>
-      <c r="I158" s="19"/>
-      <c r="J158" s="20"/>
+      <c r="F158" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G158" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H158" s="20"/>
+      <c r="I158" s="20"/>
+      <c r="J158" s="21"/>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B159" s="15" t="s">
@@ -4479,18 +4488,18 @@
       <c r="D159" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E159" s="16" t="s">
+      <c r="E159" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F159" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G159" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H159" s="19"/>
-      <c r="I159" s="19"/>
-      <c r="J159" s="20"/>
+      <c r="F159" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G159" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H159" s="20"/>
+      <c r="I159" s="20"/>
+      <c r="J159" s="21"/>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B160" s="15" t="s">
@@ -4502,18 +4511,18 @@
       <c r="D160" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E160" s="16" t="s">
+      <c r="E160" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F160" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G160" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H160" s="19"/>
-      <c r="I160" s="19"/>
-      <c r="J160" s="20"/>
+      <c r="F160" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G160" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H160" s="20"/>
+      <c r="I160" s="20"/>
+      <c r="J160" s="21"/>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B161" s="15" t="s">
@@ -4525,18 +4534,18 @@
       <c r="D161" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E161" s="16" t="s">
+      <c r="E161" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F161" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G161" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H161" s="19"/>
-      <c r="I161" s="19"/>
-      <c r="J161" s="20"/>
+      <c r="F161" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G161" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H161" s="20"/>
+      <c r="I161" s="20"/>
+      <c r="J161" s="21"/>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B162" s="15" t="s">
@@ -4548,18 +4557,18 @@
       <c r="D162" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E162" s="16" t="s">
+      <c r="E162" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F162" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G162" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H162" s="19"/>
-      <c r="I162" s="19"/>
-      <c r="J162" s="20"/>
+      <c r="F162" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G162" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H162" s="20"/>
+      <c r="I162" s="20"/>
+      <c r="J162" s="21"/>
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B163" s="15" t="s">
@@ -4571,18 +4580,18 @@
       <c r="D163" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E163" s="16" t="s">
+      <c r="E163" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F163" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G163" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H163" s="19"/>
-      <c r="I163" s="19"/>
-      <c r="J163" s="20"/>
+      <c r="F163" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G163" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H163" s="20"/>
+      <c r="I163" s="20"/>
+      <c r="J163" s="21"/>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B164" s="15" t="s">
@@ -4594,18 +4603,18 @@
       <c r="D164" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E164" s="16" t="s">
+      <c r="E164" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F164" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G164" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H164" s="19"/>
-      <c r="I164" s="19"/>
-      <c r="J164" s="20"/>
+      <c r="F164" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G164" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H164" s="20"/>
+      <c r="I164" s="20"/>
+      <c r="J164" s="21"/>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B165" s="15" t="s">
@@ -4617,18 +4626,18 @@
       <c r="D165" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E165" s="16" t="s">
+      <c r="E165" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F165" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G165" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H165" s="19"/>
-      <c r="I165" s="19"/>
-      <c r="J165" s="20"/>
+      <c r="F165" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G165" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H165" s="20"/>
+      <c r="I165" s="20"/>
+      <c r="J165" s="21"/>
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B166" s="15" t="s">
@@ -4640,18 +4649,18 @@
       <c r="D166" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E166" s="16" t="s">
+      <c r="E166" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F166" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G166" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H166" s="19"/>
-      <c r="I166" s="19"/>
-      <c r="J166" s="20"/>
+      <c r="F166" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G166" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H166" s="20"/>
+      <c r="I166" s="20"/>
+      <c r="J166" s="21"/>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B167" s="15" t="s">
@@ -4663,18 +4672,18 @@
       <c r="D167" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E167" s="16" t="s">
+      <c r="E167" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F167" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G167" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H167" s="19"/>
-      <c r="I167" s="19"/>
-      <c r="J167" s="20"/>
+      <c r="F167" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G167" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H167" s="20"/>
+      <c r="I167" s="20"/>
+      <c r="J167" s="21"/>
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B168" s="15" t="s">
@@ -4686,18 +4695,18 @@
       <c r="D168" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E168" s="16" t="s">
+      <c r="E168" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F168" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G168" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H168" s="19"/>
-      <c r="I168" s="19"/>
-      <c r="J168" s="20"/>
+      <c r="F168" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G168" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H168" s="20"/>
+      <c r="I168" s="20"/>
+      <c r="J168" s="21"/>
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B169" s="15" t="s">
@@ -4709,18 +4718,18 @@
       <c r="D169" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E169" s="16" t="s">
+      <c r="E169" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F169" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G169" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H169" s="19"/>
-      <c r="I169" s="19"/>
-      <c r="J169" s="20"/>
+      <c r="F169" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G169" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H169" s="20"/>
+      <c r="I169" s="20"/>
+      <c r="J169" s="21"/>
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B170" s="15" t="s">
@@ -4732,18 +4741,18 @@
       <c r="D170" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E170" s="16" t="s">
+      <c r="E170" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F170" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G170" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H170" s="19"/>
-      <c r="I170" s="19"/>
-      <c r="J170" s="20"/>
+      <c r="F170" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G170" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H170" s="20"/>
+      <c r="I170" s="20"/>
+      <c r="J170" s="21"/>
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B171" s="15" t="s">
@@ -4755,18 +4764,18 @@
       <c r="D171" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E171" s="16" t="s">
+      <c r="E171" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F171" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G171" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H171" s="19"/>
-      <c r="I171" s="19"/>
-      <c r="J171" s="20"/>
+      <c r="F171" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G171" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H171" s="20"/>
+      <c r="I171" s="20"/>
+      <c r="J171" s="21"/>
     </row>
     <row r="172" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B172" s="15" t="s">
@@ -4778,18 +4787,18 @@
       <c r="D172" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E172" s="16" t="s">
+      <c r="E172" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F172" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G172" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H172" s="19"/>
-      <c r="I172" s="19"/>
-      <c r="J172" s="20"/>
+      <c r="F172" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G172" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H172" s="20"/>
+      <c r="I172" s="20"/>
+      <c r="J172" s="21"/>
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B173" s="15" t="s">
@@ -4801,70 +4810,139 @@
       <c r="D173" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E173" s="16" t="s">
+      <c r="E173" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F173" s="18">
-        <v>45540</v>
-      </c>
-      <c r="G173" s="18">
-        <v>1138500</v>
-      </c>
-      <c r="H173" s="19"/>
-      <c r="I173" s="19"/>
-      <c r="J173" s="20"/>
+      <c r="F173" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G173" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H173" s="20"/>
+      <c r="I173" s="20"/>
+      <c r="J173" s="21"/>
     </row>
     <row r="174" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B174" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C174" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D174" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E174" s="22" t="s">
+      <c r="B174" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D174" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E174" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F174" s="24">
-        <v>45540</v>
-      </c>
-      <c r="G174" s="24">
-        <v>1138500</v>
-      </c>
-      <c r="H174" s="25"/>
-      <c r="I174" s="25"/>
-      <c r="J174" s="26"/>
-    </row>
-    <row r="179" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B179" s="32" t="s">
+      <c r="F174" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G174" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H174" s="20"/>
+      <c r="I174" s="20"/>
+      <c r="J174" s="21"/>
+    </row>
+    <row r="175" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B175" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C175" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E175" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F175" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G175" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H175" s="20"/>
+      <c r="I175" s="20"/>
+      <c r="J175" s="21"/>
+    </row>
+    <row r="176" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B176" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C176" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D176" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E176" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F176" s="19">
+        <v>45540</v>
+      </c>
+      <c r="G176" s="19">
+        <v>1138500</v>
+      </c>
+      <c r="H176" s="20"/>
+      <c r="I176" s="20"/>
+      <c r="J176" s="21"/>
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B177" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C177" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D177" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E177" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F177" s="26">
+        <v>45540</v>
+      </c>
+      <c r="G177" s="26">
+        <v>1138500</v>
+      </c>
+      <c r="H177" s="27"/>
+      <c r="I177" s="27"/>
+      <c r="J177" s="28"/>
+    </row>
+    <row r="182" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B182" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C182" s="34"/>
+      <c r="H182" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I182" s="1"/>
+      <c r="J182" s="1"/>
+    </row>
+    <row r="183" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B183" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="C179" s="32"/>
-      <c r="H179" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I179" s="1"/>
-      <c r="J179" s="1"/>
-    </row>
-    <row r="180" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B180" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C180" s="32"/>
-      <c r="H180" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I180" s="1"/>
-      <c r="J180" s="1"/>
+      <c r="C183" s="34"/>
+      <c r="H183" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I183" s="1"/>
+      <c r="J183" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B180:C180"/>
-    <mergeCell ref="B179:C179"/>
-    <mergeCell ref="H180:J180"/>
-    <mergeCell ref="H179:J179"/>
+    <mergeCell ref="B183:C183"/>
+    <mergeCell ref="B182:C182"/>
+    <mergeCell ref="H183:J183"/>
+    <mergeCell ref="H182:J182"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
